--- a/CH.xlsx
+++ b/CH.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="19">
   <si>
     <t xml:space="preserve">Semaine : </t>
   </si>
@@ -32,13 +32,22 @@
     <t>10:0</t>
   </si>
   <si>
+    <t>U3-110</t>
+  </si>
+  <si>
     <t>TYPE_COURS</t>
   </si>
   <si>
+    <t>U3-4</t>
+  </si>
+  <si>
     <t>lundi</t>
   </si>
   <si>
     <t>15:45</t>
+  </si>
+  <si>
+    <t>U3-Amphi</t>
   </si>
   <si>
     <t>mercredi</t>
@@ -144,10 +153,12 @@
       <c r="E3" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F3" s="0"/>
+      <c r="F3" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G3" s="0"/>
       <c r="H3" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I3" s="0"/>
     </row>
@@ -183,10 +194,12 @@
       <c r="E6" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F6" s="0"/>
+      <c r="F6" t="s" s="0">
+        <v>8</v>
+      </c>
       <c r="G6" s="0"/>
       <c r="H6" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I6" s="0"/>
     </row>
@@ -203,7 +216,7 @@
         <v>45971.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -217,15 +230,17 @@
         <v>4</v>
       </c>
       <c r="D9" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F9" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="E9" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F9" s="0"/>
       <c r="G9" s="0"/>
       <c r="H9" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I9" s="0"/>
     </row>
@@ -242,7 +257,7 @@
         <v>45978.0</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -256,15 +271,17 @@
         <v>4</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F12" s="0"/>
+      <c r="F12" t="s" s="0">
+        <v>11</v>
+      </c>
       <c r="G12" s="0"/>
       <c r="H12" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I12" s="0"/>
     </row>
@@ -273,7 +290,7 @@
         <v>45980.0</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -287,15 +304,17 @@
         <v>4</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E14" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F14" s="0"/>
+      <c r="F14" t="s" s="0">
+        <v>8</v>
+      </c>
       <c r="G14" s="0"/>
       <c r="H14" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I14" s="0"/>
     </row>
@@ -318,15 +337,17 @@
         <v>4</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E16" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F16" s="0"/>
+      <c r="F16" t="s" s="0">
+        <v>11</v>
+      </c>
       <c r="G16" s="0"/>
       <c r="H16" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I16" s="0"/>
     </row>
@@ -343,7 +364,7 @@
         <v>46003.0</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -357,15 +378,17 @@
         <v>4</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E19" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F19" s="0"/>
+      <c r="F19" t="s" s="0">
+        <v>11</v>
+      </c>
       <c r="G19" s="0"/>
       <c r="H19" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I19" s="0"/>
     </row>
@@ -385,10 +408,12 @@
       <c r="E20" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F20" s="0"/>
+      <c r="F20" t="s" s="0">
+        <v>11</v>
+      </c>
       <c r="G20" s="0"/>
       <c r="H20" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I20" s="0"/>
     </row>
@@ -410,7 +435,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s" s="0">
         <v>3</v>
@@ -419,15 +444,17 @@
         <v>4</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E23" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="F23" s="0"/>
+      <c r="F23" t="s" s="0">
+        <v>11</v>
+      </c>
       <c r="G23" s="0"/>
       <c r="H23" t="s" s="0">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I23" s="0"/>
     </row>
